--- a/natmiOut/OldD0/LR-pairs_lrc2p/Psen1-Notch2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Psen1-Notch2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.2432589255992</v>
+        <v>24.916566</v>
       </c>
       <c r="H2">
-        <v>20.2432589255992</v>
+        <v>74.749698</v>
       </c>
       <c r="I2">
-        <v>0.4097028038315105</v>
+        <v>0.459912889255076</v>
       </c>
       <c r="J2">
-        <v>0.4097028038315105</v>
+        <v>0.459912889255076</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.76063460789358</v>
+        <v>33.380049</v>
       </c>
       <c r="N2">
-        <v>7.76063460789358</v>
+        <v>100.140147</v>
       </c>
       <c r="O2">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="P2">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="Q2">
-        <v>157.1005357945558</v>
+        <v>831.716193991734</v>
       </c>
       <c r="R2">
-        <v>157.1005357945558</v>
+        <v>7485.445745925605</v>
       </c>
       <c r="S2">
-        <v>0.05317716455044948</v>
+        <v>0.1789733559289539</v>
       </c>
       <c r="T2">
-        <v>0.05317716455044948</v>
+        <v>0.1789733559289539</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.2432589255992</v>
+        <v>24.916566</v>
       </c>
       <c r="H3">
-        <v>20.2432589255992</v>
+        <v>74.749698</v>
       </c>
       <c r="I3">
-        <v>0.4097028038315105</v>
+        <v>0.459912889255076</v>
       </c>
       <c r="J3">
-        <v>0.4097028038315105</v>
+        <v>0.459912889255076</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.6299748862569</v>
+        <v>33.85786133333334</v>
       </c>
       <c r="N3">
-        <v>33.6299748862569</v>
+        <v>101.573584</v>
       </c>
       <c r="O3">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="P3">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="Q3">
-        <v>680.780289283897</v>
+        <v>843.6216365308481</v>
       </c>
       <c r="R3">
-        <v>680.780289283897</v>
+        <v>7592.594728777633</v>
       </c>
       <c r="S3">
-        <v>0.2304382049549124</v>
+        <v>0.1815352358351491</v>
       </c>
       <c r="T3">
-        <v>0.2304382049549124</v>
+        <v>0.1815352358351491</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.2432589255992</v>
+        <v>24.916566</v>
       </c>
       <c r="H4">
-        <v>20.2432589255992</v>
+        <v>74.749698</v>
       </c>
       <c r="I4">
-        <v>0.4097028038315105</v>
+        <v>0.459912889255076</v>
       </c>
       <c r="J4">
-        <v>0.4097028038315105</v>
+        <v>0.459912889255076</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.4011034571746</v>
+        <v>18.53974466666667</v>
       </c>
       <c r="N4">
-        <v>18.4011034571746</v>
+        <v>55.61923400000001</v>
       </c>
       <c r="O4">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="P4">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="Q4">
-        <v>372.498301800324</v>
+        <v>461.946771610148</v>
       </c>
       <c r="R4">
-        <v>372.498301800324</v>
+        <v>4157.520944491333</v>
       </c>
       <c r="S4">
-        <v>0.1260874343261487</v>
+        <v>0.09940429749097307</v>
       </c>
       <c r="T4">
-        <v>0.1260874343261487</v>
+        <v>0.09940429749097307</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.5925770261033</v>
+        <v>19.60300333333333</v>
       </c>
       <c r="H5">
-        <v>19.5925770261033</v>
+        <v>58.80901</v>
       </c>
       <c r="I5">
-        <v>0.3965336693751624</v>
+        <v>0.3618345281251927</v>
       </c>
       <c r="J5">
-        <v>0.3965336693751624</v>
+        <v>0.3618345281251927</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.76063460789358</v>
+        <v>33.380049</v>
       </c>
       <c r="N5">
-        <v>7.76063460789358</v>
+        <v>100.140147</v>
       </c>
       <c r="O5">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="P5">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="Q5">
-        <v>152.0508313265979</v>
+        <v>654.34921181383</v>
       </c>
       <c r="R5">
-        <v>152.0508313265979</v>
+        <v>5889.14290632447</v>
       </c>
       <c r="S5">
-        <v>0.05146788352180363</v>
+        <v>0.1408065338077942</v>
       </c>
       <c r="T5">
-        <v>0.05146788352180363</v>
+        <v>0.1408065338077942</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.5925770261033</v>
+        <v>19.60300333333333</v>
       </c>
       <c r="H6">
-        <v>19.5925770261033</v>
+        <v>58.80901</v>
       </c>
       <c r="I6">
-        <v>0.3965336693751624</v>
+        <v>0.3618345281251927</v>
       </c>
       <c r="J6">
-        <v>0.3965336693751624</v>
+        <v>0.3618345281251927</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.6299748862569</v>
+        <v>33.85786133333334</v>
       </c>
       <c r="N6">
-        <v>33.6299748862569</v>
+        <v>101.573584</v>
       </c>
       <c r="O6">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="P6">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="Q6">
-        <v>658.8978733449079</v>
+        <v>663.7157685768713</v>
       </c>
       <c r="R6">
-        <v>658.8978733449079</v>
+        <v>5973.441917191841</v>
       </c>
       <c r="S6">
-        <v>0.2230311975423423</v>
+        <v>0.1428220820314437</v>
       </c>
       <c r="T6">
-        <v>0.2230311975423423</v>
+        <v>0.1428220820314437</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.5925770261033</v>
+        <v>19.60300333333333</v>
       </c>
       <c r="H7">
-        <v>19.5925770261033</v>
+        <v>58.80901</v>
       </c>
       <c r="I7">
-        <v>0.3965336693751624</v>
+        <v>0.3618345281251927</v>
       </c>
       <c r="J7">
-        <v>0.3965336693751624</v>
+        <v>0.3618345281251927</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.4011034571746</v>
+        <v>18.53974466666667</v>
       </c>
       <c r="N7">
-        <v>18.4011034571746</v>
+        <v>55.61923400000001</v>
       </c>
       <c r="O7">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="P7">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="Q7">
-        <v>360.5250368499891</v>
+        <v>363.4346764998156</v>
       </c>
       <c r="R7">
-        <v>360.5250368499891</v>
+        <v>3270.91208849834</v>
       </c>
       <c r="S7">
-        <v>0.1220345883110165</v>
+        <v>0.07820591228595479</v>
       </c>
       <c r="T7">
-        <v>0.1220345883110165</v>
+        <v>0.07820591228595479</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.57378179141698</v>
+        <v>9.657138000000002</v>
       </c>
       <c r="H8">
-        <v>9.57378179141698</v>
+        <v>28.971414</v>
       </c>
       <c r="I8">
-        <v>0.1937635267933271</v>
+        <v>0.1782525826197313</v>
       </c>
       <c r="J8">
-        <v>0.1937635267933271</v>
+        <v>0.1782525826197313</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.76063460789358</v>
+        <v>33.380049</v>
       </c>
       <c r="N8">
-        <v>7.76063460789358</v>
+        <v>100.140147</v>
       </c>
       <c r="O8">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="P8">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="Q8">
-        <v>74.29862229889201</v>
+        <v>322.355739639762</v>
       </c>
       <c r="R8">
-        <v>74.29862229889201</v>
+        <v>2901.201656757858</v>
       </c>
       <c r="S8">
-        <v>0.02514943723060679</v>
+        <v>0.06936631623029538</v>
       </c>
       <c r="T8">
-        <v>0.02514943723060679</v>
+        <v>0.06936631623029538</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.57378179141698</v>
+        <v>9.657138000000002</v>
       </c>
       <c r="H9">
-        <v>9.57378179141698</v>
+        <v>28.971414</v>
       </c>
       <c r="I9">
-        <v>0.1937635267933271</v>
+        <v>0.1782525826197313</v>
       </c>
       <c r="J9">
-        <v>0.1937635267933271</v>
+        <v>0.1782525826197313</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.6299748862569</v>
+        <v>33.85786133333334</v>
       </c>
       <c r="N9">
-        <v>33.6299748862569</v>
+        <v>101.573584</v>
       </c>
       <c r="O9">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="P9">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="Q9">
-        <v>321.9660412118567</v>
+        <v>326.9700392808641</v>
       </c>
       <c r="R9">
-        <v>321.9660412118567</v>
+        <v>2942.730353527777</v>
       </c>
       <c r="S9">
-        <v>0.1089827037609189</v>
+        <v>0.07035924710983771</v>
       </c>
       <c r="T9">
-        <v>0.1089827037609189</v>
+        <v>0.07035924710983769</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.57378179141698</v>
+        <v>9.657138000000002</v>
       </c>
       <c r="H10">
-        <v>9.57378179141698</v>
+        <v>28.971414</v>
       </c>
       <c r="I10">
-        <v>0.1937635267933271</v>
+        <v>0.1782525826197313</v>
       </c>
       <c r="J10">
-        <v>0.1937635267933271</v>
+        <v>0.1782525826197313</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.4011034571746</v>
+        <v>18.53974466666667</v>
       </c>
       <c r="N10">
-        <v>18.4011034571746</v>
+        <v>55.61923400000001</v>
       </c>
       <c r="O10">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="P10">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="Q10">
-        <v>176.1681492202782</v>
+        <v>179.040872730764</v>
       </c>
       <c r="R10">
-        <v>176.1681492202782</v>
+        <v>1611.367854576876</v>
       </c>
       <c r="S10">
-        <v>0.05963138580180144</v>
+        <v>0.03852701927959819</v>
       </c>
       <c r="T10">
-        <v>0.05963138580180144</v>
+        <v>0.03852701927959819</v>
       </c>
     </row>
   </sheetData>
